--- a/run_times.xlsx
+++ b/run_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91d71b6cf5e2f4c2/Documents/GradSchool/Research-Wissel/NuLeptonSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{404386C6-84A4-4C34-BF0E-FB583BB98025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67ED501B-81F3-4F77-B8D2-20A03E8746FA}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{404386C6-84A4-4C34-BF0E-FB583BB98025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25B9DA93-3838-43B6-A498-F449809B0E60}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{C987A556-F2C3-41A8-87C4-F048703FA6BA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C987A556-F2C3-41A8-87C4-F048703FA6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>NuSimRunTimes</t>
   </si>
@@ -54,9 +54,6 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>*laptop cpu at 3.5 GHz, desktop at 3.9GHz</t>
-  </si>
-  <si>
     <t>desktop</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>def seems like taus take plonger to run</t>
   </si>
   <si>
-    <t>deskto/games</t>
-  </si>
-  <si>
     <t>n tau all 1Ev</t>
   </si>
   <si>
@@ -115,6 +109,48 @@
   </si>
   <si>
     <t>*had a few stopages, about 20 min total while moving around</t>
+  </si>
+  <si>
+    <t>n tall 10^15 not icecube</t>
+  </si>
+  <si>
+    <t>n tall 10^16 not icecube</t>
+  </si>
+  <si>
+    <t>ntall 10^17 not icecube</t>
+  </si>
+  <si>
+    <t>*laptop cpu at 3.4-3.5 GHz, desktop at 3.9-4.0 GHz</t>
+  </si>
+  <si>
+    <t>ntall 10^18 not icecube</t>
+  </si>
+  <si>
+    <t>ntall 10^19 not icecube</t>
+  </si>
+  <si>
+    <t>ntall 10^20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desktop </t>
+  </si>
+  <si>
+    <t>nmuall 10^18</t>
+  </si>
+  <si>
+    <t>nmuall 10^16</t>
+  </si>
+  <si>
+    <t>nmuall 10^19</t>
+  </si>
+  <si>
+    <t>nmuall 10^17</t>
+  </si>
+  <si>
+    <t>nmuall 10^15</t>
+  </si>
+  <si>
+    <t>nmuall 10^20</t>
   </si>
 </sst>
 </file>
@@ -150,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +204,1904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tau total time vs energy for 10^5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> starting neutrnio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$19:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E+20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1921.9998000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5533.0000200000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9733.0000199999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8359-48F4-A0C3-30A5882C7A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2051680384"/>
+        <c:axId val="2051680800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2051680384"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2051680800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2051680800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2051680384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>muon total time vs energy for10^15 starting enutrinos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$27:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E+20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$27:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC99-4F0F-A9B8-AE8EB425EF2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531765296"/>
+        <c:axId val="535028736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531765296"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535028736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535028736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531765296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE3F0FF-A809-422E-92A5-D9B810714B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D18DD95-16A7-41E5-AA8C-4CE0A6575EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,15 +2401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E1662C-61A9-42F2-8593-3AE9D8575422}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -525,7 +2461,7 @@
         <v>2150</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="0">E4/D4</f>
+        <f t="shared" ref="F4:F27" si="0">E4/D4</f>
         <v>15.925925925925926</v>
       </c>
       <c r="G4">
@@ -535,10 +2471,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <f>10^5</f>
@@ -556,7 +2492,7 @@
         <v>72.487499999999997</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G15" si="1">E5/(D5*C5)</f>
+        <f t="shared" ref="G5:G16" si="1">E5/(D5*C5)</f>
         <v>7.2487500000000004E-4</v>
       </c>
     </row>
@@ -565,7 +2501,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>100000</v>
@@ -590,7 +2526,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -615,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -635,15 +2571,15 @@
         <v>1.9022222222222221E-4</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>100000</v>
@@ -664,15 +2600,15 @@
         <v>1.6100892857142857E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>100000</v>
@@ -692,16 +2628,19 @@
         <f t="shared" si="1"/>
         <v>1.4108035714285715E-3</v>
       </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>100000</v>
@@ -720,6 +2659,9 @@
       <c r="G11">
         <f t="shared" si="1"/>
         <v>8.9321249999999995E-4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -727,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -747,15 +2689,15 @@
         <v>6.8496296296296296E-4</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>100000</v>
@@ -776,15 +2718,15 @@
         <v>2.4058928571428573E-3</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>100000</v>
@@ -805,7 +2747,7 @@
         <v>4.9000000178571436E-4</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -813,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -833,13 +2775,414 @@
         <v>3.0738518518518519E-3</v>
       </c>
       <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>100000</v>
+      </c>
+      <c r="D16">
+        <v>135</v>
+      </c>
+      <c r="E16">
+        <f>60*32.03333</f>
+        <v>1921.9998000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>14.237035555555556</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.4237035555555557E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="L15" t="s">
-        <v>16</v>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>135</v>
+      </c>
+      <c r="E17">
+        <f>60*92.216667</f>
+        <v>5533.0000200000004</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>40.985185333333334</v>
+      </c>
+      <c r="G17">
+        <f>E17/(D17*C17)</f>
+        <v>4.0985185333333339E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <f>162.216667*60</f>
+        <v>9733.0000199999995</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>72.096296444444434</v>
+      </c>
+      <c r="G18">
+        <f>E18/(D18*C18)</f>
+        <v>7.2096296444444446E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <f>248.1*60</f>
+        <v>14886</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>110.26666666666667</v>
+      </c>
+      <c r="G19">
+        <f>E19/(D19*C19)</f>
+        <v>1.1026666666666667E-3</v>
+      </c>
+      <c r="L19">
+        <f>10^15</f>
+        <v>1000000000000000</v>
+      </c>
+      <c r="M19">
+        <f>60*32.03333</f>
+        <v>1921.9998000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>100000</v>
+      </c>
+      <c r="D20">
+        <v>135</v>
+      </c>
+      <c r="E20">
+        <f>60*336.63333</f>
+        <v>20197.999800000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>149.61481333333333</v>
+      </c>
+      <c r="G20">
+        <f>E20/(D20*C20)</f>
+        <v>1.4961481333333334E-3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1E+16</v>
+      </c>
+      <c r="M20">
+        <f>60*92.216667</f>
+        <v>5533.0000200000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>100000</v>
+      </c>
+      <c r="D21">
+        <v>135</v>
+      </c>
+      <c r="E21">
+        <f>430.1667*60</f>
+        <v>25810.002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>191.18520000000001</v>
+      </c>
+      <c r="G21">
+        <f>E21/(D21*C21)</f>
+        <v>1.9118520000000001E-3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1E+17</v>
+      </c>
+      <c r="M21">
+        <f>162.216667*60</f>
+        <v>9733.0000199999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>100000</v>
+      </c>
+      <c r="D22">
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <f>60*118.26667</f>
+        <v>7096.0002000000004</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>52.562964444444447</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G27" si="2">E22/(D22*C22)</f>
+        <v>5.2562964444444443E-4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1E+18</v>
+      </c>
+      <c r="M22">
+        <f>248.1*60</f>
+        <v>14886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>100000</v>
+      </c>
+      <c r="D23">
+        <v>135</v>
+      </c>
+      <c r="E23">
+        <f>60*48.46667</f>
+        <v>2908.0001999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>21.540742222222221</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2.1540742222222222E-4</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1E+19</v>
+      </c>
+      <c r="M23">
+        <v>20198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>100000</v>
+      </c>
+      <c r="D24">
+        <v>135</v>
+      </c>
+      <c r="E24">
+        <f>60*158.6</f>
+        <v>9516</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>70.488888888888894</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>7.048888888888889E-4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1E+20</v>
+      </c>
+      <c r="M24">
+        <v>25810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>100000</v>
+      </c>
+      <c r="D25">
+        <v>135</v>
+      </c>
+      <c r="E25">
+        <f>60*84.716667</f>
+        <v>5083.0000200000004</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>37.651852000000005</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3.7651852000000004E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>100000</v>
+      </c>
+      <c r="D26">
+        <v>135</v>
+      </c>
+      <c r="E26">
+        <f>17.966667*60</f>
+        <v>1078.0000199999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>7.9851853333333329</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>7.9851853333333335E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>100000</v>
+      </c>
+      <c r="D27">
+        <v>135</v>
+      </c>
+      <c r="E27">
+        <f>60*194.216667</f>
+        <v>11653.000019999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>86.318518666666662</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>8.6318518666666664E-4</v>
+      </c>
+      <c r="L27">
+        <f>10^15</f>
+        <v>1000000000000000</v>
+      </c>
+      <c r="M27">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>1E+16</v>
+      </c>
+      <c r="M28">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>1E+17</v>
+      </c>
+      <c r="M29">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>1E+18</v>
+      </c>
+      <c r="M30">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>1E+19</v>
+      </c>
+      <c r="M31">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>1E+20</v>
+      </c>
+      <c r="M32">
+        <v>11653</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/run_times.xlsx
+++ b/run_times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91d71b6cf5e2f4c2/Documents/GradSchool/Research-Wissel/NuLeptonSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{404386C6-84A4-4C34-BF0E-FB583BB98025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25B9DA93-3838-43B6-A498-F449809B0E60}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{404386C6-84A4-4C34-BF0E-FB583BB98025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{29906739-9AFA-4D94-A111-7AFDE2752821}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C987A556-F2C3-41A8-87C4-F048703FA6BA}"/>
   </bookViews>
@@ -915,6 +915,748 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tau run time per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> angle vs energy for 10^5 neutrinos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$19:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E+15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00E+16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00E+20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$19:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E+20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.237035555555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.985185333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.096296444444434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.26666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.61481333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.18520000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFC5-4500-96B7-1AC3171F3F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="963168800"/>
+        <c:axId val="963165888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="963168800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1E+21"/>
+          <c:min val="100000000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963165888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="963165888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963168800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Muon run time per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> angle vs energy for 10^5 neutrinos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$19:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E+20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$27:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.9851853333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.540742222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.651852000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.562964444444447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.488888888888894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.318518666666662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6424-497E-A03A-27906456EBEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="963168800"/>
+        <c:axId val="963165888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="963168800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1E+21"/>
+          <c:min val="100000000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963165888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="963165888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963168800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -995,6 +1737,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1512,6 +2334,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2067,16 +3921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2096,6 +3950,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC05D61-92B0-45E7-8F2F-34C5A634CCC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19A016F-CCE0-44BA-8C1D-EF5EE810A481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2403,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E1662C-61A9-42F2-8593-3AE9D8575422}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +4735,7 @@
         <v>1.4237035555555557E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2833,7 +4761,7 @@
         <v>4.0985185333333339E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2859,7 +4787,7 @@
         <v>7.2096296444444446E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2892,8 +4820,11 @@
         <f>60*32.03333</f>
         <v>1921.9998000000001</v>
       </c>
+      <c r="N19">
+        <v>14.237035555555556</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2925,8 +4856,11 @@
         <f>60*92.216667</f>
         <v>5533.0000200000004</v>
       </c>
+      <c r="N20">
+        <v>40.985185333333334</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2958,8 +4892,11 @@
         <f>162.216667*60</f>
         <v>9733.0000199999995</v>
       </c>
+      <c r="N21">
+        <v>72.096296444444434</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2991,8 +4928,11 @@
         <f>248.1*60</f>
         <v>14886</v>
       </c>
+      <c r="N22">
+        <v>110.26666666666667</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3023,8 +4963,11 @@
       <c r="M23">
         <v>20198</v>
       </c>
+      <c r="N23">
+        <v>149.61481333333333</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3055,8 +4998,11 @@
       <c r="M24">
         <v>25810</v>
       </c>
+      <c r="N24">
+        <v>191.18520000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +5028,7 @@
         <v>3.7651852000000004E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +5054,7 @@
         <v>7.9851853333333335E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3140,45 +5086,63 @@
       <c r="M27">
         <v>1078</v>
       </c>
+      <c r="N27">
+        <v>7.9851853333333329</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L28" s="1">
         <v>1E+16</v>
       </c>
       <c r="M28">
         <v>2908</v>
       </c>
+      <c r="N28">
+        <v>21.540742222222221</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L29" s="1">
         <v>1E+17</v>
       </c>
       <c r="M29">
         <v>5083</v>
       </c>
+      <c r="N29">
+        <v>37.651852000000005</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L30" s="1">
         <v>1E+18</v>
       </c>
       <c r="M30">
         <v>7096</v>
       </c>
+      <c r="N30">
+        <v>52.562964444444447</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L31" s="1">
         <v>1E+19</v>
       </c>
       <c r="M31">
         <v>9516</v>
       </c>
+      <c r="N31">
+        <v>70.488888888888894</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L32" s="1">
         <v>1E+20</v>
       </c>
       <c r="M32">
         <v>11653</v>
+      </c>
+      <c r="N32">
+        <v>86.318518666666662</v>
       </c>
     </row>
   </sheetData>
